--- a/data/attribute.xlsx
+++ b/data/attribute.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>ID</t>
   </si>
@@ -91,72 +91,6 @@
     <t>Ddefense2</t>
   </si>
   <si>
-    <t>Hit1</t>
-  </si>
-  <si>
-    <t>Hit2</t>
-  </si>
-  <si>
-    <t>Crit1</t>
-  </si>
-  <si>
-    <t>Crit2</t>
-  </si>
-  <si>
-    <t>CritAdd1</t>
-  </si>
-  <si>
-    <t>CritAdd2</t>
-  </si>
-  <si>
-    <t>Dodge1</t>
-  </si>
-  <si>
-    <t>Dodge2</t>
-  </si>
-  <si>
-    <t>Cut1</t>
-  </si>
-  <si>
-    <t>Cut2</t>
-  </si>
-  <si>
-    <t>CutPre1</t>
-  </si>
-  <si>
-    <t>CutPre2</t>
-  </si>
-  <si>
-    <t>Poison1</t>
-  </si>
-  <si>
-    <t>Poison2</t>
-  </si>
-  <si>
-    <t>Paralysis1</t>
-  </si>
-  <si>
-    <t>Paralysis2</t>
-  </si>
-  <si>
-    <t>Toughness1</t>
-  </si>
-  <si>
-    <t>Toughness2</t>
-  </si>
-  <si>
-    <t>Lucky1</t>
-  </si>
-  <si>
-    <t>Lucky2</t>
-  </si>
-  <si>
-    <t>Damnation1</t>
-  </si>
-  <si>
-    <t>Damnation2</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -227,69 +161,6 @@
   </si>
   <si>
     <t>道术防御力上限</t>
-  </si>
-  <si>
-    <t>准确下限</t>
-  </si>
-  <si>
-    <t>暴击率下限</t>
-  </si>
-  <si>
-    <t>暴击率上限</t>
-  </si>
-  <si>
-    <t>暴击加成下限</t>
-  </si>
-  <si>
-    <t>暴击加成上限</t>
-  </si>
-  <si>
-    <t>闪避下限</t>
-  </si>
-  <si>
-    <t>闪避上限</t>
-  </si>
-  <si>
-    <t>切割率上限</t>
-  </si>
-  <si>
-    <t>切割率下限</t>
-  </si>
-  <si>
-    <t>切割百分比上限</t>
-  </si>
-  <si>
-    <t>切割百分比下限</t>
-  </si>
-  <si>
-    <t>中毒率下限</t>
-  </si>
-  <si>
-    <t>中毒率上限</t>
-  </si>
-  <si>
-    <t>麻痹率下限</t>
-  </si>
-  <si>
-    <t>麻痹率上限</t>
-  </si>
-  <si>
-    <t>韧性下限</t>
-  </si>
-  <si>
-    <t>韧性上限</t>
-  </si>
-  <si>
-    <t>幸运下限</t>
-  </si>
-  <si>
-    <t>幸运上限</t>
-  </si>
-  <si>
-    <t>诅咒下限</t>
-  </si>
-  <si>
-    <t>诅咒上限</t>
   </si>
 </sst>
 </file>
@@ -938,11 +809,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,570 +1153,364 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="7" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="47" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="7" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="8" max="25" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="P3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="U3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="V3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="W3" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="X3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="4" spans="1:25">
+      <c r="A4" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
-    <row r="3" spans="1:47">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>91</v>
-      </c>
+    <row r="5" spans="1:25">
+      <c r="A5" s="6">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>500</v>
+      </c>
+      <c r="J5" s="6">
+        <v>800</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>3</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
-    <row r="4" spans="1:47">
-      <c r="A4" s="5">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+    <row r="6" spans="1:23">
+      <c r="A6" s="6">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>240</v>
+      </c>
+      <c r="E6" s="2">
+        <v>240</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3</v>
+      </c>
+      <c r="U6" s="2">
         <v>5</v>
       </c>
-      <c r="J4" s="5">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="V6" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
-        <v>500</v>
-      </c>
-      <c r="J5" s="5">
-        <v>800</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>3</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
+      <c r="W6" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/attribute.xlsx
+++ b/data/attribute.xlsx
@@ -167,8 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -809,10 +810,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,10 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,361 +1160,375 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="7" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="8" max="25" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="2"/>
+    <col min="2" max="7" width="10.1428571428571" style="3" customWidth="1"/>
+    <col min="8" max="25" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="6">
+    <row r="4" s="1" customFormat="1" spans="1:25">
+      <c r="A4" s="7">
         <v>10001</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>5</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>10</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="6">
+    <row r="5" s="1" customFormat="1" spans="1:25">
+      <c r="A5" s="7">
         <v>10002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2000</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>100</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>500</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>800</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>1000</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
         <v>3</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="6">
+    <row r="6" s="1" customFormat="1" spans="1:25">
+      <c r="A6" s="7">
         <v>10003</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>240</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <v>240</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>1500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>1500</v>
       </c>
-      <c r="T6" s="2">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <v>3</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="8">
         <v>5</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="8">
         <v>100</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="8">
         <v>100</v>
       </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/attribute.xlsx
+++ b/data/attribute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView windowWidth="12040" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>

--- a/data/attribute.xlsx
+++ b/data/attribute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12040" windowHeight="8460"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -168,11 +168,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,7 +184,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +207,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,14 +237,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,24 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,35 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -296,8 +290,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -354,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,24 +566,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -597,6 +579,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +613,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,6 +633,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,172 +660,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,9 +830,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,54 +838,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1155,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -1163,11 +1160,11 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="7" width="10.1428571428571" style="3" customWidth="1"/>
-    <col min="8" max="25" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="9.14166666666667" style="2"/>
+    <col min="2" max="7" width="10.1416666666667" style="3" customWidth="1"/>
+    <col min="8" max="25" width="9.14166666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1485,50 +1482,58 @@
       <c r="A6" s="7">
         <v>10003</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>240</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>240</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1500</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1500</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7">
         <v>3</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>5</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>100</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>100</v>
       </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
